--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37ADF58-68FF-4612-8E0A-F2459C6CC8EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF815E9-2020-4C78-A0C1-FE2064B52DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>priority</t>
   </si>
@@ -33,9 +33,6 @@
     <t>refrence image</t>
   </si>
   <si>
-    <t>concept art</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>datura</t>
   </si>
   <si>
-    <t>ivy</t>
-  </si>
-  <si>
     <t>cactus</t>
   </si>
   <si>
@@ -121,13 +115,82 @@
   </si>
   <si>
     <t>open window</t>
+  </si>
+  <si>
+    <t>pistol</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>upgraded pistol</t>
+  </si>
+  <si>
+    <t>ugraded AR</t>
+  </si>
+  <si>
+    <t>smashed window</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sunflower</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>a model for the gnome enemys</t>
+  </si>
+  <si>
+    <t>a plant that eats gnomes</t>
+  </si>
+  <si>
+    <t>a plant that hipnosises gnomes</t>
+  </si>
+  <si>
+    <t>a plant to upgrade weapons</t>
+  </si>
+  <si>
+    <t>a plant that has long range projectiles</t>
+  </si>
+  <si>
+    <t>a gun the player starts with to kill gnomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a better gun the player can get </t>
+  </si>
+  <si>
+    <t>an upgrade to the pistol</t>
+  </si>
+  <si>
+    <t>an upgrade to the AR</t>
+  </si>
+  <si>
+    <t>modular assets to build the eviroment</t>
+  </si>
+  <si>
+    <t>planter</t>
+  </si>
+  <si>
+    <t>an area where the player can plant a plant</t>
+  </si>
+  <si>
+    <t>planter_v01.mb</t>
+  </si>
+  <si>
+    <t>2 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +205,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +223,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,17 +255,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
-  <dimension ref="B4:P27"/>
+  <dimension ref="B4:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,23 +594,22 @@
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -569,434 +647,548 @@
       <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>769</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF815E9-2020-4C78-A0C1-FE2064B52DD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144DFE3D-AA21-4802-BB2F-D617A2330DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,11 +260,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -585,26 +584,26 @@
   <dimension ref="B4:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="37.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
+    <col min="13" max="13" width="18.26953125" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -648,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -666,7 +665,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -688,7 +687,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -710,7 +709,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -732,7 +731,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -748,7 +747,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -766,7 +765,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -788,7 +787,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -810,7 +809,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -832,7 +831,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -854,7 +853,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -874,7 +873,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -890,7 +889,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -908,7 +907,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -930,7 +929,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -952,7 +951,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -974,7 +973,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -996,7 +995,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1012,7 +1011,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1030,7 +1029,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -1044,15 +1043,17 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -1066,15 +1067,17 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1094,9 +1097,11 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -1118,12 +1123,12 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="1"/>
@@ -1140,12 +1145,12 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="1"/>
@@ -1162,12 +1167,12 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="1"/>
@@ -1178,7 +1183,7 @@
         <v>51</v>
       </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="1"/>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\Gnomes-on-the-roam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144DFE3D-AA21-4802-BB2F-D617A2330DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0AAF5-70F3-432F-B9FF-4127565341F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>priority</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>2 hours</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Fly_trap_v03</t>
+  </si>
+  <si>
+    <t>5h</t>
   </si>
 </sst>
 </file>
@@ -584,26 +593,26 @@
   <dimension ref="B4:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="37.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -647,7 +656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -665,7 +674,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -687,7 +696,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -709,7 +718,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -731,7 +740,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -747,7 +756,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -765,7 +774,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -777,17 +786,23 @@
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -809,7 +824,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -831,7 +846,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -853,7 +868,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -873,7 +888,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -889,7 +904,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
@@ -907,7 +922,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -929,7 +944,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>31</v>
@@ -951,7 +966,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -973,7 +988,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>33</v>
@@ -995,7 +1010,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1011,7 +1026,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1029,7 +1044,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>25</v>
@@ -1053,7 +1068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -1077,7 +1092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1101,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
@@ -1123,7 +1138,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
@@ -1145,7 +1160,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>34</v>
@@ -1167,7 +1182,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>49</v>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0AAF5-70F3-432F-B9FF-4127565341F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717FD23-27DA-4931-9D45-E675620B0E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>priority</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>small plants</t>
+  </si>
+  <si>
+    <t>metal gate</t>
+  </si>
+  <si>
+    <t>to block the player from gnome spawn</t>
+  </si>
+  <si>
+    <t>hide the gnome spawn</t>
+  </si>
+  <si>
+    <t>decoration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buyable door </t>
   </si>
 </sst>
 </file>
@@ -269,11 +293,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -590,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
-  <dimension ref="B4:O30"/>
+  <dimension ref="B4:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,6 +1235,94 @@
         <v>769</v>
       </c>
     </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717FD23-27DA-4931-9D45-E675620B0E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82BF963-BE33-417F-B900-137711FA0D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
+    <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>Fly_trap_v03</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">buyable door </t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
@@ -293,12 +293,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -618,7 +617,7 @@
   <dimension ref="B4:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +811,7 @@
         <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
@@ -820,10 +819,10 @@
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1237,15 +1236,15 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="4" t="s">
-        <v>60</v>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
@@ -1259,15 +1258,15 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
+      <c r="C32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="4" t="s">
-        <v>61</v>
+      <c r="F32" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
@@ -1281,15 +1280,15 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="4" t="s">
-        <v>58</v>
+      <c r="C33" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="4" t="s">
-        <v>62</v>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
@@ -1303,15 +1302,15 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="4" t="s">
-        <v>59</v>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="4" t="s">
-        <v>63</v>
+      <c r="F34" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82BF963-BE33-417F-B900-137711FA0D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE37AB-6ADA-42B1-892E-CDAB52C5A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>priority</t>
   </si>
@@ -217,13 +217,22 @@
   </si>
   <si>
     <t>6h</t>
+  </si>
+  <si>
+    <t>2.5h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +254,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +277,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,19 +309,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -617,7 +641,7 @@
   <dimension ref="B4:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,10 +837,10 @@
       <c r="G11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
         <v>54</v>
@@ -960,12 +984,16 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1004,11 +1032,13 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
@@ -1030,7 +1060,9 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal Projects\Gnomes-on-the-roam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE37AB-6ADA-42B1-892E-CDAB52C5A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BCD4F-A791-40AA-AACD-DA37699C9350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>priority</t>
   </si>
@@ -51,9 +51,6 @@
     <t>textured</t>
   </si>
   <si>
-    <t>in engine render</t>
-  </si>
-  <si>
     <t>estmimated time</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>Fly_trap_v03</t>
-  </si>
-  <si>
     <t>5h</t>
   </si>
   <si>
@@ -226,13 +220,58 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>pistol_v03.mb</t>
+  </si>
+  <si>
+    <t>Fly_trap_v03.mb</t>
+  </si>
+  <si>
+    <t>modular_greenhouse_v01</t>
+  </si>
+  <si>
+    <t>Mod_greenHouse_img.png</t>
+  </si>
+  <si>
+    <t>in engine render (current progress)</t>
+  </si>
+  <si>
+    <t>Fly_trap_img.jpg</t>
+  </si>
+  <si>
+    <t>pistol_img.png</t>
+  </si>
+  <si>
+    <t>pistol_upgraded_vo1.mb</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>unreal file</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>the level made with assets</t>
+  </si>
+  <si>
+    <t>level_img.png</t>
+  </si>
+  <si>
+    <t>planter_textures.png</t>
+  </si>
+  <si>
+    <t>pistol_upgrade_img.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +296,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,22 +356,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -638,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
-  <dimension ref="B4:O34"/>
+  <dimension ref="B4:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,10 +702,10 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
@@ -662,10 +713,10 @@
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -692,21 +743,21 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -725,14 +776,14 @@
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2"/>
@@ -747,14 +798,14 @@
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
@@ -769,14 +820,14 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
@@ -806,7 +857,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -825,42 +876,44 @@
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="M11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
@@ -875,14 +928,14 @@
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
@@ -897,14 +950,14 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
@@ -919,10 +972,10 @@
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -954,7 +1007,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -973,40 +1026,44 @@
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
@@ -1021,23 +1078,27 @@
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1045,14 +1106,14 @@
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
@@ -1061,7 +1122,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1084,7 +1145,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1103,23 +1164,29 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O24" s="1">
         <v>44</v>
       </c>
@@ -1127,23 +1194,29 @@
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>0.5</v>
+      </c>
       <c r="O25" s="1">
         <v>44</v>
       </c>
@@ -1151,21 +1224,23 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1">
@@ -1175,21 +1250,23 @@
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1197,21 +1274,23 @@
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1219,21 +1298,23 @@
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1241,25 +1322,27 @@
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="M30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1">
@@ -1269,14 +1352,14 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="2"/>
@@ -1291,14 +1374,14 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="2"/>
@@ -1313,14 +1396,14 @@
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
@@ -1335,14 +1418,14 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
@@ -1354,7 +1437,108 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L24" r:id="rId1" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{98CAF729-06F0-4569-AC9D-48EEC956ADA4}"/>
+    <hyperlink ref="L25" r:id="rId2" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{80C29E38-D354-4619-B952-91A674879035}"/>
+    <hyperlink ref="L11" r:id="rId3" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EbkX9Gb6uflAsADwReA55EoBemyG8OKou9vPh5ZfQ_U6bQ?e=xCAAeQ" xr:uid="{C8717228-6EFA-4655-8305-31F7297BFCBC}"/>
+    <hyperlink ref="L18" r:id="rId4" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ETILMaoW9XZDq1g8NkvLCSoBVQisN50HEWPcqRiRCkl3_Q?e=hjsA8r" xr:uid="{17C24136-D485-4EBE-9C6D-6CDD6B19004F}"/>
+    <hyperlink ref="L38" r:id="rId5" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec40-Bycb_BOq_K4BxIJFlsBgr96HZS_4pbb1hJTdsc34w?e=Ngdxf2" xr:uid="{D536C44C-B773-4C42-AF93-C3FDB0210385}"/>
+    <hyperlink ref="L30" r:id="rId6" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYEr4JbJw3FDt4_hRBksLMkBnEv3FBKi03oILraZ8_qNHA?e=sngqxZ" xr:uid="{56B33F93-1E91-4430-B1CE-9C88E56BAA42}"/>
+    <hyperlink ref="L20" r:id="rId7" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EUN3t4qsSdhJoRPUBOdKg1ABqQMXZTDGUG2aGHbA3BtOmg?e=LGAHIj" xr:uid="{E9046259-67B6-4A64-8A7F-BBB6CC1DA059}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BCD4F-A791-40AA-AACD-DA37699C9350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F5C29-6447-4292-BA5E-126208ACEB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
   <si>
     <t>priority</t>
   </si>
@@ -265,6 +265,24 @@
   </si>
   <si>
     <t>pistol_upgrade_img.png</t>
+  </si>
+  <si>
+    <t>gun_ar_upgraded.jpg</t>
+  </si>
+  <si>
+    <t>cactus.jpg</t>
+  </si>
+  <si>
+    <t>sunflower.jpg</t>
+  </si>
+  <si>
+    <t>gnome.jpg</t>
+  </si>
+  <si>
+    <t>chomper.png</t>
+  </si>
+  <si>
+    <t>greenhouse.jpg</t>
   </si>
 </sst>
 </file>
@@ -691,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
   <dimension ref="B4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +799,9 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
@@ -881,7 +901,9 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
@@ -933,7 +955,9 @@
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
@@ -955,7 +979,9 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1111,7 +1137,9 @@
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="F21" s="1" t="s">
         <v>46</v>
       </c>
@@ -1334,10 +1362,10 @@
       <c r="G30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="5" t="s">
         <v>78</v>
       </c>
@@ -1495,7 +1523,9 @@
       <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>76</v>
       </c>
@@ -1538,6 +1568,12 @@
     <hyperlink ref="L38" r:id="rId5" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec40-Bycb_BOq_K4BxIJFlsBgr96HZS_4pbb1hJTdsc34w?e=Ngdxf2" xr:uid="{D536C44C-B773-4C42-AF93-C3FDB0210385}"/>
     <hyperlink ref="L30" r:id="rId6" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYEr4JbJw3FDt4_hRBksLMkBnEv3FBKi03oILraZ8_qNHA?e=sngqxZ" xr:uid="{56B33F93-1E91-4430-B1CE-9C88E56BAA42}"/>
     <hyperlink ref="L20" r:id="rId7" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EUN3t4qsSdhJoRPUBOdKg1ABqQMXZTDGUG2aGHbA3BtOmg?e=LGAHIj" xr:uid="{E9046259-67B6-4A64-8A7F-BBB6CC1DA059}"/>
+    <hyperlink ref="E21" r:id="rId8" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec-1pKsjUktPiYq2dGdeueYB4yfn3WyKM1sDH02POwcHLw?e=WW1QQ6" xr:uid="{5D663EE8-D801-4857-B167-E04909E16588}"/>
+    <hyperlink ref="E14" r:id="rId9" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ea3iU4b8qapIuznqF70N9fQBHT0tjRJ6dvj-8uJIgbT8Hg?e=YjDDkX" xr:uid="{36FD3D70-08E1-42C8-A9E5-FBE20ADDAD95}"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EasBF4nj6h9EsKuA1tmjbHQBQqIN8SWrRzMnXiELIY8vvw?e=zKWBpb" xr:uid="{8A058A9A-3327-4A01-BE5B-A5A1330C83F1}"/>
+    <hyperlink ref="E6" r:id="rId11" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ESG1VnFiGVFNudH-TOC20AcBIwPPRmXCXGN14G3jzBIVjA?e=gavahx" xr:uid="{5B41C813-DA4A-4D29-99CF-B0993276DDA1}"/>
+    <hyperlink ref="E11" r:id="rId12" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYdss9x3slVBheO4JbwQlQsBwjFDjz1xrL_tJgiNaRGoFA?e=wWocaf" xr:uid="{4A6889F3-0277-4D4A-BCFF-CA57F2B16D09}"/>
+    <hyperlink ref="E38" r:id="rId13" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec4TmZTT3uFPmKDDAKUCBdEB-IbhpOa03ueIsC878jWjhg?e=BOas0R" xr:uid="{1D2FB2ED-D15F-4765-B1D4-ED82072F9299}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0F5C29-6447-4292-BA5E-126208ACEB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE89CE8-4EB7-4BC6-BF3B-C2A67B0B417A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>priority</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>greenhouse.jpg</t>
+  </si>
+  <si>
+    <t>1.5h</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
   <dimension ref="B4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1080,9 @@
       <c r="N18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1">
+        <v>3621</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
@@ -1117,7 +1122,7 @@
         <v>72</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="5" t="s">
@@ -1127,7 +1132,9 @@
         <v>64</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1">
+        <v>6075</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
@@ -1372,7 +1379,9 @@
       <c r="M30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="O30" s="1">
         <v>769</v>
       </c>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE89CE8-4EB7-4BC6-BF3B-C2A67B0B417A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D10E2-3EB6-4AE0-B7B8-1FF20EC6362F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>priority</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>1.5h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="B4:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +818,9 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D10E2-3EB6-4AE0-B7B8-1FF20EC6362F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF3397-1BF2-451C-B2AB-DB4830EE191D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>priority</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>2h</t>
+  </si>
+  <si>
+    <t>Gnomus_Egginton_v06.mb</t>
+  </si>
+  <si>
+    <t>Concept art</t>
+  </si>
+  <si>
+    <t>0.5h</t>
   </si>
 </sst>
 </file>
@@ -713,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
-  <dimension ref="B4:O39"/>
+  <dimension ref="B4:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,18 +733,18 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,37 +758,40 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,16 +800,17 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -805,25 +818,30 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6"/>
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -832,20 +850,25 @@
         <v>35</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>17</v>
@@ -854,36 +877,38 @@
         <v>35</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
@@ -892,16 +917,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -909,31 +935,32 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -942,20 +969,21 @@
         <v>37</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -963,23 +991,24 @@
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -987,23 +1016,24 @@
       <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -1014,32 +1044,30 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1048,16 +1076,17 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="2"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
         <v>29</v>
@@ -1066,30 +1095,31 @@
         <v>34</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="4"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>3621</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1098,20 +1128,21 @@
         <v>34</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -1120,28 +1151,29 @@
         <v>37</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="5" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <v>6075</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1149,41 +1181,39 @@
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1192,16 +1222,17 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>24</v>
@@ -1210,28 +1241,29 @@
         <v>34</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="2"/>
+      <c r="M24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O24" s="1">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>25</v>
@@ -1240,28 +1272,29 @@
         <v>34</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O25" s="1">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -1270,24 +1303,25 @@
         <v>34</v>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1296,22 +1330,23 @@
         <v>34</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
         <v>28</v>
@@ -1320,22 +1355,23 @@
         <v>34</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
@@ -1344,22 +1380,23 @@
         <v>34</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
         <v>48</v>
@@ -1368,30 +1405,31 @@
         <v>34</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4"/>
+      <c r="M30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>769</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>53</v>
@@ -1400,20 +1438,21 @@
         <v>34</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
         <v>54</v>
@@ -1422,20 +1461,21 @@
         <v>34</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>55</v>
@@ -1444,20 +1484,21 @@
         <v>34</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>56</v>
@@ -1466,36 +1507,38 @@
         <v>34</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1510,8 +1553,9 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
@@ -1528,8 +1572,9 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
         <v>73</v>
@@ -1537,27 +1582,28 @@
       <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="1"/>
+      <c r="M38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1572,22 +1618,23 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L24" r:id="rId1" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{98CAF729-06F0-4569-AC9D-48EEC956ADA4}"/>
-    <hyperlink ref="L25" r:id="rId2" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{80C29E38-D354-4619-B952-91A674879035}"/>
-    <hyperlink ref="L11" r:id="rId3" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EbkX9Gb6uflAsADwReA55EoBemyG8OKou9vPh5ZfQ_U6bQ?e=xCAAeQ" xr:uid="{C8717228-6EFA-4655-8305-31F7297BFCBC}"/>
-    <hyperlink ref="L18" r:id="rId4" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ETILMaoW9XZDq1g8NkvLCSoBVQisN50HEWPcqRiRCkl3_Q?e=hjsA8r" xr:uid="{17C24136-D485-4EBE-9C6D-6CDD6B19004F}"/>
-    <hyperlink ref="L38" r:id="rId5" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec40-Bycb_BOq_K4BxIJFlsBgr96HZS_4pbb1hJTdsc34w?e=Ngdxf2" xr:uid="{D536C44C-B773-4C42-AF93-C3FDB0210385}"/>
-    <hyperlink ref="L30" r:id="rId6" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYEr4JbJw3FDt4_hRBksLMkBnEv3FBKi03oILraZ8_qNHA?e=sngqxZ" xr:uid="{56B33F93-1E91-4430-B1CE-9C88E56BAA42}"/>
-    <hyperlink ref="L20" r:id="rId7" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EUN3t4qsSdhJoRPUBOdKg1ABqQMXZTDGUG2aGHbA3BtOmg?e=LGAHIj" xr:uid="{E9046259-67B6-4A64-8A7F-BBB6CC1DA059}"/>
+    <hyperlink ref="M24" r:id="rId1" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{98CAF729-06F0-4569-AC9D-48EEC956ADA4}"/>
+    <hyperlink ref="M25" r:id="rId2" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ERs-yJPHjt1KmEK1WHlq0NYBt1spKdwAKsdJwplJ9eO15A?e=grYmgh" xr:uid="{80C29E38-D354-4619-B952-91A674879035}"/>
+    <hyperlink ref="M11" r:id="rId3" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EbkX9Gb6uflAsADwReA55EoBemyG8OKou9vPh5ZfQ_U6bQ?e=xCAAeQ" xr:uid="{C8717228-6EFA-4655-8305-31F7297BFCBC}"/>
+    <hyperlink ref="M18" r:id="rId4" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ETILMaoW9XZDq1g8NkvLCSoBVQisN50HEWPcqRiRCkl3_Q?e=hjsA8r" xr:uid="{17C24136-D485-4EBE-9C6D-6CDD6B19004F}"/>
+    <hyperlink ref="M38" r:id="rId5" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec40-Bycb_BOq_K4BxIJFlsBgr96HZS_4pbb1hJTdsc34w?e=Ngdxf2" xr:uid="{D536C44C-B773-4C42-AF93-C3FDB0210385}"/>
+    <hyperlink ref="M30" r:id="rId6" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYEr4JbJw3FDt4_hRBksLMkBnEv3FBKi03oILraZ8_qNHA?e=sngqxZ" xr:uid="{56B33F93-1E91-4430-B1CE-9C88E56BAA42}"/>
+    <hyperlink ref="M20" r:id="rId7" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EUN3t4qsSdhJoRPUBOdKg1ABqQMXZTDGUG2aGHbA3BtOmg?e=LGAHIj" xr:uid="{E9046259-67B6-4A64-8A7F-BBB6CC1DA059}"/>
     <hyperlink ref="E21" r:id="rId8" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec-1pKsjUktPiYq2dGdeueYB4yfn3WyKM1sDH02POwcHLw?e=WW1QQ6" xr:uid="{5D663EE8-D801-4857-B167-E04909E16588}"/>
     <hyperlink ref="E14" r:id="rId9" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ea3iU4b8qapIuznqF70N9fQBHT0tjRJ6dvj-8uJIgbT8Hg?e=YjDDkX" xr:uid="{36FD3D70-08E1-42C8-A9E5-FBE20ADDAD95}"/>
     <hyperlink ref="E13" r:id="rId10" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EasBF4nj6h9EsKuA1tmjbHQBQqIN8SWrRzMnXiELIY8vvw?e=zKWBpb" xr:uid="{8A058A9A-3327-4A01-BE5B-A5A1330C83F1}"/>
-    <hyperlink ref="E6" r:id="rId11" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ESG1VnFiGVFNudH-TOC20AcBIwPPRmXCXGN14G3jzBIVjA?e=gavahx" xr:uid="{5B41C813-DA4A-4D29-99CF-B0993276DDA1}"/>
-    <hyperlink ref="E11" r:id="rId12" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYdss9x3slVBheO4JbwQlQsBwjFDjz1xrL_tJgiNaRGoFA?e=wWocaf" xr:uid="{4A6889F3-0277-4D4A-BCFF-CA57F2B16D09}"/>
-    <hyperlink ref="E38" r:id="rId13" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec4TmZTT3uFPmKDDAKUCBdEB-IbhpOa03ueIsC878jWjhg?e=BOas0R" xr:uid="{1D2FB2ED-D15F-4765-B1D4-ED82072F9299}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYdss9x3slVBheO4JbwQlQsBwjFDjz1xrL_tJgiNaRGoFA?e=wWocaf" xr:uid="{4A6889F3-0277-4D4A-BCFF-CA57F2B16D09}"/>
+    <hyperlink ref="E38" r:id="rId12" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec4TmZTT3uFPmKDDAKUCBdEB-IbhpOa03ueIsC878jWjhg?e=BOas0R" xr:uid="{1D2FB2ED-D15F-4765-B1D4-ED82072F9299}"/>
+    <hyperlink ref="E6" r:id="rId13" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ESG1VnFiGVFNudH-TOC20AcBIwPPRmXCXGN14G3jzBIVjA?e=gavahx" xr:uid="{5B41C813-DA4A-4D29-99CF-B0993276DDA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asset list.xlsx
+++ b/asset list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c0999686\Documents\GitHub\Gnomes-on-the-roam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF3397-1BF2-451C-B2AB-DB4830EE191D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F88F4-8C0D-40DA-9C6E-1312F2C7F262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5850" yWindow="5850" windowWidth="43200" windowHeight="23985" xr2:uid="{A025463A-1597-42AE-AF35-739BFE196A9F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>priority</t>
   </si>
@@ -298,6 +298,18 @@
   </si>
   <si>
     <t>0.5h</t>
+  </si>
+  <si>
+    <t>Scientific seed table</t>
+  </si>
+  <si>
+    <t>cables</t>
+  </si>
+  <si>
+    <t>fence.jpg</t>
+  </si>
+  <si>
+    <t>gate.jpg</t>
   </si>
 </sst>
 </file>
@@ -722,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2769F2B0-149D-44E9-9085-2A0CD7579D5B}">
-  <dimension ref="B4:P39"/>
+  <dimension ref="B4:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1449,9 @@
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
         <v>57</v>
@@ -1506,7 +1520,9 @@
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>60</v>
@@ -1605,7 +1621,9 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1619,6 +1637,11 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1635,6 +1658,8 @@
     <hyperlink ref="E11" r:id="rId11" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EYdss9x3slVBheO4JbwQlQsBwjFDjz1xrL_tJgiNaRGoFA?e=wWocaf" xr:uid="{4A6889F3-0277-4D4A-BCFF-CA57F2B16D09}"/>
     <hyperlink ref="E38" r:id="rId12" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/Ec4TmZTT3uFPmKDDAKUCBdEB-IbhpOa03ueIsC878jWjhg?e=BOas0R" xr:uid="{1D2FB2ED-D15F-4765-B1D4-ED82072F9299}"/>
     <hyperlink ref="E6" r:id="rId13" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ESG1VnFiGVFNudH-TOC20AcBIwPPRmXCXGN14G3jzBIVjA?e=gavahx" xr:uid="{5B41C813-DA4A-4D29-99CF-B0993276DDA1}"/>
+    <hyperlink ref="E31" r:id="rId14" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/EXihFjMmOD1HqPDtJFe8Mk8BaiFYRdb8NtAO4O7sbpm_dw?e=fv1aAr" xr:uid="{FA151903-2BCC-4809-9037-ACB132706B04}"/>
+    <hyperlink ref="E34" r:id="rId15" display="https://myntuac-my.sharepoint.com/:i:/g/personal/n0999686_my_ntu_ac_uk/ETgMB1wYrCFEqLCu9g5mBHgB0R8dL9wYvdTLJfja05K2ew?e=PXm6cK" xr:uid="{DF3B791E-D7FF-429A-A520-9BE44123008D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
